--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.penalva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/maryanna_silva_sptech_school/Documents/Documents/SPTech - 3º Semestre/PROJETO - CAR CROWD SYSTEM/Documentacao-CCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D2D05BB-5A02-414B-9E6D-ECFB0A851226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{0D2D05BB-5A02-414B-9E6D-ECFB0A851226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15EE34EB-E997-4A20-91AE-550C8E427BE1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="78">
   <si>
     <t>Product BackLog Classified (PBC)</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Cód. do Requisito</t>
   </si>
   <si>
-    <t>Cód. do Artefato</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Planejada</t>
   </si>
   <si>
@@ -76,39 +70,21 @@
     <t>O sistema deverá fazer check-out de carros em modo fila nas vagas do estacionamento</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>O sistema deve ter uma API que integra ao whatsapp para que o cliente solicite o check-out.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Importante </t>
   </si>
   <si>
     <t>O sistema deverá disponibilizar uma dashboard</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>A dashboard deverá ter um gráfico sinalizando os fluxos de carros em cada dia da semana</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
     <t>A dashboard deverá informar o valor de entrada do dia</t>
   </si>
   <si>
-    <t>O sistema deve fazer cadastro do gerente, mas sem a liberação do login</t>
-  </si>
-  <si>
     <t>O sistema deve fazer login</t>
   </si>
   <si>
-    <t>O sistema deverá fazer cadastro de funcionários em modo pilha a partir de uma conta gerente</t>
-  </si>
-  <si>
     <t>O sistema deve permitir a alteração dos valores da vaga por hora (somente gerente)</t>
   </si>
   <si>
@@ -121,9 +97,6 @@
     <t>O sistema deverá permitir o usuário gerente a alterar a hora de check-in dos funcionários</t>
   </si>
   <si>
-    <t>O sistema deverá disponibilizar um histórico de entrada e saida dos carros</t>
-  </si>
-  <si>
     <t>O sistema deve apresentar modais de sucesso</t>
   </si>
   <si>
@@ -145,9 +118,6 @@
     <t>O sistema deve ter um chat-bot para o usuário fazer envio do checkout</t>
   </si>
   <si>
-    <t>O sistema deverá notificar quando haver check-out´s de carro</t>
-  </si>
-  <si>
     <t>O sistema deve disponibilizar uma carteira de lucro acumulativa diária do estacionamento</t>
   </si>
   <si>
@@ -287,6 +257,21 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma API que integre SMS para que o cliente solicite o check-out</t>
+  </si>
+  <si>
+    <t>O sistema deve fazer o cadastro do gerente, mas sem a liberação do login</t>
+  </si>
+  <si>
+    <t>O sistema deverá fazer cadastro de funcionários à partir de uma conta gerente</t>
+  </si>
+  <si>
+    <t>O sistema deverá disponibilizar um histórico de entrada e saída dos carros</t>
+  </si>
+  <si>
+    <t>O sistema deverá notificar quando haver check-out's de carro pendente</t>
   </si>
 </sst>
 </file>
@@ -296,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -463,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -599,19 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -634,21 +606,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,41 +640,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,7 +687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,42 +803,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,19 +835,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -937,6 +855,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -988,16 +914,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1010,6 +926,16 @@
         <patternFill>
           <fgColor rgb="FFEFB661"/>
           <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1592,771 +1518,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:I54"/>
+  <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="109.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="51.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="17.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="109.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="58" t="s">
+    <row r="1" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="2:9" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:9" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B4" s="44" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B5" s="48">
+    </row>
+    <row r="5" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="56">
         <v>1</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="57">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="E6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="56">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B6" s="27">
-        <v>2</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="57">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="56">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="57">
+        <v>6</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="56">
         <v>7</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="2:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57">
+        <v>8</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="56">
+        <v>9</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="57">
+        <v>10</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="56">
         <v>11</v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B7" s="27" t="s">
+      <c r="C15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="57">
         <v>12</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="C16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="56">
         <v>13</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="C17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="57">
         <v>14</v>
       </c>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B8" s="49">
-        <v>3</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="C18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="56">
         <v>15</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B9" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="32" t="s">
+      <c r="C19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B10" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B11" s="27">
-        <v>4</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="2:9" s="26" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B12" s="27">
-        <v>3</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B13" s="27">
-        <v>4</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B14" s="27">
-        <v>5</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B15" s="27">
-        <v>6</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="2:9" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B16" s="27">
-        <v>7</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B17" s="27">
-        <v>8</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B18" s="27">
-        <v>9</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B19" s="27">
-        <v>10</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27">
         <v>11</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27">
         <v>12</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="C21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27">
         <v>13</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="32" t="s">
+      <c r="C22" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27">
         <v>14</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>15</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="32" t="s">
+      <c r="C24" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27">
         <v>16</v>
       </c>
-      <c r="C25" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>17</v>
       </c>
-      <c r="C26" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="27">
         <v>18</v>
       </c>
-      <c r="C27" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>19</v>
       </c>
-      <c r="C28" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="27">
         <v>20</v>
       </c>
-      <c r="C29" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27">
         <v>21</v>
       </c>
-      <c r="C30" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C31" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C32" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C33" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:7" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C36" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B38" s="50"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="34"/>
+      <c r="C37" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="47"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B39" s="50"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="34"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="47"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B40" s="50"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="34"/>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="47"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B41" s="50"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="34"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="47"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B42" s="50"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="34"/>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="47"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B43" s="51"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="36"/>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="48"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="2:7" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="F54" s="16"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="49"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="49"/>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="49"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="49"/>
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="49"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="49"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="49"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="49"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="49"/>
+      <c r="E52" s="16"/>
+    </row>
+    <row r="53" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="B5:B10">
+  <conditionalFormatting sqref="B5:B19">
     <cfRule type="expression" dxfId="17" priority="8">
-      <formula>$D5="Blocked"</formula>
+      <formula>$C5="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="9">
-      <formula>$D5="Dropped"</formula>
+      <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C37">
+  <conditionalFormatting sqref="B5:B37">
     <cfRule type="expression" dxfId="15" priority="2">
-      <formula>$D5="Done!"</formula>
+      <formula>$C5="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="3">
-      <formula>$D5="Ongoing"</formula>
+      <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C11 B11 B12:C37">
+  <conditionalFormatting sqref="B11:B37">
     <cfRule type="expression" dxfId="13" priority="1">
-      <formula>$D$4="Plannedd"</formula>
+      <formula>$C$4="Plannedd"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="4">
-      <formula>$D5="Blocked"</formula>
+      <formula>$C11="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$D5="Dropped"</formula>
+      <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D37 G5:G37">
+  <conditionalFormatting sqref="C5:C37 F5:F37">
     <cfRule type="expression" dxfId="10" priority="54">
-      <formula>$D5="Dropped"</formula>
+      <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:E37">
+  <conditionalFormatting sqref="C5:D37">
     <cfRule type="expression" dxfId="9" priority="23">
-      <formula>$D5="Done!"</formula>
+      <formula>$C5="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="24">
-      <formula>$D5="Ongoing"</formula>
+      <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10">
+  <conditionalFormatting sqref="D5:D10">
     <cfRule type="expression" dxfId="7" priority="37">
-      <formula>$D5="Blocked"</formula>
+      <formula>$C5="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="38">
-      <formula>$D5="Dropped"</formula>
+      <formula>$C5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E37">
-    <cfRule type="expression" dxfId="5" priority="25">
-      <formula>$D11="Blocked"</formula>
+  <conditionalFormatting sqref="D11:D37">
+    <cfRule type="expression" dxfId="5" priority="18">
+      <formula>$C$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="26">
-      <formula>$D11="Dropped"</formula>
+    <cfRule type="expression" dxfId="4" priority="25">
+      <formula>$C11="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>$D$4="Plannedd"</formula>
+    <cfRule type="expression" dxfId="3" priority="26">
+      <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G37 D5:D37">
+  <conditionalFormatting sqref="F5:F37 C5:C37">
     <cfRule type="expression" dxfId="2" priority="53">
-      <formula>$D5="Blocked"</formula>
+      <formula>$C5="Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G37">
+  <conditionalFormatting sqref="F5:F37">
     <cfRule type="expression" dxfId="1" priority="51">
-      <formula>$D5="Done!"</formula>
+      <formula>$C5="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="52">
-      <formula>$D5="Ongoing"</formula>
+      <formula>$C5="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2369,19 +2190,19 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>F31:F37</xm:sqref>
+          <xm:sqref>E31:E37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D37</xm:sqref>
+          <xm:sqref>C5:C37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A02F1AAD-E838-4EC2-BAE2-D30AC13FC4E6}">
           <x14:formula1>
             <xm:f>Dados!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F30</xm:sqref>
+          <xm:sqref>E5:E30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2400,7 +2221,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
@@ -2409,141 +2230,141 @@
     <col min="6" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:11">
+        <v>35</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>0.5</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f>A5+A4</f>
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" ref="A7:A13" si="0">A6+A5</f>
         <v>5</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2551,7 +2372,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2559,7 +2380,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -2567,107 +2388,107 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="68.25" customHeight="1">
+    <row r="16" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.45">
-      <c r="A17" s="21" t="s">
+    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.45">
-      <c r="A18" s="21" t="s">
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.45">
-      <c r="A19" s="21" t="s">
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.45">
-      <c r="A20" s="21" t="s">
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.45">
-      <c r="A21" s="21" t="s">
+    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.45">
-      <c r="A22" s="21" t="s">
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.45">
-      <c r="A23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.45">
-      <c r="A24" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.45">
-      <c r="A25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.45">
-      <c r="A26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.45">
-      <c r="A27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2686,21 +2507,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B8B53775E6D35F4CA8E311D27EAAAE5D" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b08ffb6f49a946e3a6201ebaf8d0c36b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f08d0dc2a2c440ea41234e3d9d6f8b8" ns2:_="">
     <xsd:import namespace="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f"/>
@@ -2838,14 +2644,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCF2672-EA77-4AF1-BE56-97AA2FBEFF47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3EC7F-0965-4EA9-A9B3-3ADE292508A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EF175B-F78D-4CB0-A5EB-3F12E9CE216A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EF175B-F78D-4CB0-A5EB-3F12E9CE216A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3EC7F-0965-4EA9-A9B3-3ADE292508A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCF2672-EA77-4AF1-BE56-97AA2FBEFF47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/maryanna_silva_sptech_school/Documents/Documents/SPTech - 3º Semestre/PROJETO - CAR CROWD SYSTEM/Documentacao-CCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{0D2D05BB-5A02-414B-9E6D-ECFB0A851226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15EE34EB-E997-4A20-91AE-550C8E427BE1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{0D2D05BB-5A02-414B-9E6D-ECFB0A851226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6988EDE5-ED07-4BAE-8463-B464166FBC5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,66 +58,84 @@
     <t>Observações</t>
   </si>
   <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>O sistema deverá fazer check-in de carros nas vagas do estacionamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essencial </t>
+  </si>
+  <si>
+    <t>O sistema deverá fazer check-out de carros em modo fila nas vagas do estacionamento</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma API que integre SMS para que o cliente solicite o check-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importante </t>
+  </si>
+  <si>
+    <t>O sistema deverá disponibilizar uma dashboard</t>
+  </si>
+  <si>
+    <t>A dashboard deverá ter um gráfico sinalizando os fluxos de carros em cada dia da semana</t>
+  </si>
+  <si>
+    <t>A dashboard deverá informar o valor de entrada do dia</t>
+  </si>
+  <si>
+    <t>O sistema deve fazer o cadastro do gerente, mas sem a liberação do login</t>
+  </si>
+  <si>
+    <t>O sistema deverá notificar quando haver check-out's de carro pendente</t>
+  </si>
+  <si>
+    <t>O sistema deverá fazer cadastro de funcionários à partir de uma conta gerente</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir a alteração dos valores da vaga por hora (somente gerente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deve permitir a alteração de dados do estacionamento (somente gerente) </t>
+  </si>
+  <si>
+    <t>O sistema deve permitir o usuário gerente a fazer check-in e check-out a qualquer hora</t>
+  </si>
+  <si>
+    <t>O sistema deverá permitir o usuário gerente a alterar a hora de check-in dos funcionários</t>
+  </si>
+  <si>
+    <t>O sistema deverá disponibilizar um histórico de entrada e saída dos carros</t>
+  </si>
+  <si>
+    <t>O sistema deve apresentar modais de sucesso</t>
+  </si>
+  <si>
     <t>Planejada</t>
   </si>
   <si>
-    <t>O sistema deverá fazer check-in de carros nas vagas do estacionamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essencial </t>
-  </si>
-  <si>
-    <t>O sistema deverá fazer check-out de carros em modo fila nas vagas do estacionamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importante </t>
-  </si>
-  <si>
-    <t>O sistema deverá disponibilizar uma dashboard</t>
-  </si>
-  <si>
-    <t>A dashboard deverá ter um gráfico sinalizando os fluxos de carros em cada dia da semana</t>
-  </si>
-  <si>
-    <t>A dashboard deverá informar o valor de entrada do dia</t>
+    <t>Caso algum campo esteja inválido, o sistema deve deixar a borda do campo em vermelho</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma tela de suporte fora do login</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma tela de suporte dentro do login</t>
+  </si>
+  <si>
+    <t>O sistema deve enviar os chamados de suporte para o e-mail da empresa</t>
+  </si>
+  <si>
+    <t>O sistema deve gerar um ticket virtual para o cliente via WhatsApp contendo token de check-out</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um chat-bot para o usuário fazer envio do checkout</t>
   </si>
   <si>
     <t>O sistema deve fazer login</t>
   </si>
   <si>
-    <t>O sistema deve permitir a alteração dos valores da vaga por hora (somente gerente)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O sistema deve permitir a alteração de dados do estacionamento (somente gerente) </t>
-  </si>
-  <si>
-    <t>O sistema deve permitir o usuário gerente a fazer check-in e check-out a qualquer hora</t>
-  </si>
-  <si>
-    <t>O sistema deverá permitir o usuário gerente a alterar a hora de check-in dos funcionários</t>
-  </si>
-  <si>
-    <t>O sistema deve apresentar modais de sucesso</t>
-  </si>
-  <si>
-    <t>Caso algum campo esteja inválido, o sistema deve deixar a borda do campo em vermelho</t>
-  </si>
-  <si>
-    <t>O sistema deve ter uma tela de suporte fora do login</t>
-  </si>
-  <si>
-    <t>O sistema deve ter uma tela de suporte dentro do login</t>
-  </si>
-  <si>
-    <t>O sistema deve enviar os chamados de suporte para o e-mail da empresa</t>
-  </si>
-  <si>
-    <t>O sistema deve gerar um ticket virtual para o cliente via WhatsApp contendo token de check-out</t>
-  </si>
-  <si>
-    <t>O sistema deve ter um chat-bot para o usuário fazer envio do checkout</t>
-  </si>
-  <si>
     <t>O sistema deve disponibilizar uma carteira de lucro acumulativa diária do estacionamento</t>
   </si>
   <si>
@@ -151,9 +169,6 @@
     <t>Paleta de Cores</t>
   </si>
   <si>
-    <t>Feito</t>
-  </si>
-  <si>
     <t>Joana</t>
   </si>
   <si>
@@ -257,21 +272,6 @@
   </si>
   <si>
     <t>EC</t>
-  </si>
-  <si>
-    <t>O sistema deve ter uma API que integre SMS para que o cliente solicite o check-out</t>
-  </si>
-  <si>
-    <t>O sistema deve fazer o cadastro do gerente, mas sem a liberação do login</t>
-  </si>
-  <si>
-    <t>O sistema deverá fazer cadastro de funcionários à partir de uma conta gerente</t>
-  </si>
-  <si>
-    <t>O sistema deverá disponibilizar um histórico de entrada e saída dos carros</t>
-  </si>
-  <si>
-    <t>O sistema deverá notificar quando haver check-out's de carro pendente</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -841,6 +841,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,36 +864,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -1520,11 +1520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -1537,19 +1537,19 @@
     <col min="10" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:8" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="25" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
       <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
@@ -1566,8 +1566,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="56">
+    <row r="5" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
       <c r="C5" s="46" t="s">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="F5" s="41"/>
     </row>
-    <row r="6" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="57">
+    <row r="6" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B6" s="52">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -1596,511 +1596,511 @@
       </c>
       <c r="F6" s="33"/>
     </row>
-    <row r="7" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="56">
+    <row r="7" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B7" s="51">
         <v>3</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="33"/>
     </row>
-    <row r="8" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="57">
+    <row r="8" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B8" s="52">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="33"/>
     </row>
-    <row r="9" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="56">
+    <row r="9" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B9" s="51">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="57">
+    <row r="10" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B10" s="52">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="56">
+    <row r="11" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B11" s="51">
         <v>7</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="2:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+    <row r="12" spans="2:8" s="26" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B12" s="52">
         <v>8</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="56">
+    <row r="13" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B13" s="51">
         <v>9</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="33"/>
     </row>
-    <row r="14" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57">
+    <row r="14" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B14" s="52">
         <v>10</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="33"/>
     </row>
-    <row r="15" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="56">
+    <row r="15" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B15" s="51">
         <v>11</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="33"/>
     </row>
-    <row r="16" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="57">
+    <row r="16" spans="2:8" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B16" s="52">
         <v>12</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="56">
+    <row r="17" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B17" s="51">
         <v>13</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="57">
+    <row r="18" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B18" s="52">
         <v>14</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="56">
+    <row r="19" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
+      <c r="B19" s="51">
         <v>15</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B20" s="27">
         <v>11</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B21" s="27">
         <v>12</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="33"/>
     </row>
-    <row r="22" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B22" s="27">
         <v>13</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="33"/>
     </row>
-    <row r="23" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B23" s="27">
         <v>14</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B24" s="27">
         <v>15</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="33"/>
     </row>
-    <row r="25" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B25" s="27">
         <v>16</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="33"/>
     </row>
-    <row r="26" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B26" s="27">
         <v>17</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="33"/>
     </row>
-    <row r="27" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B27" s="27">
         <v>18</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B28" s="27">
         <v>19</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B29" s="27">
         <v>20</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="33"/>
     </row>
-    <row r="30" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B30" s="27">
         <v>21</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E30" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B31" s="27"/>
       <c r="C31" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="29"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="32" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B32" s="27"/>
       <c r="C32" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="29"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B33" s="27"/>
       <c r="C33" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="29"/>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B34" s="27"/>
       <c r="C34" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="29"/>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B35" s="27"/>
       <c r="C35" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="29"/>
       <c r="F35" s="33"/>
     </row>
-    <row r="36" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B36" s="27"/>
       <c r="C36" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="29"/>
       <c r="F36" s="33"/>
     </row>
-    <row r="37" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" s="26" customFormat="1" ht="23.1" customHeight="1">
       <c r="B37" s="27"/>
       <c r="C37" s="32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="29"/>
       <c r="F37" s="33"/>
     </row>
-    <row r="38" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B38" s="47"/>
       <c r="C38" s="34"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" s="35"/>
     </row>
-    <row r="39" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B39" s="47"/>
       <c r="C39" s="34"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="35"/>
     </row>
-    <row r="40" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B40" s="47"/>
       <c r="C40" s="34"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" s="35"/>
     </row>
-    <row r="41" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B41" s="47"/>
       <c r="C41" s="34"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="35"/>
     </row>
-    <row r="42" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B42" s="47"/>
       <c r="C42" s="34"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
       <c r="F42" s="35"/>
     </row>
-    <row r="43" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B43" s="48"/>
       <c r="C43" s="36"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B44" s="49"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B45" s="49"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B46" s="49"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B47" s="49"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B48" s="49"/>
       <c r="E48" s="16"/>
     </row>
-    <row r="49" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B49" s="49"/>
       <c r="E49" s="16"/>
     </row>
-    <row r="50" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B50" s="49"/>
       <c r="E50" s="16"/>
     </row>
-    <row r="51" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B51" s="49"/>
       <c r="E51" s="16"/>
     </row>
-    <row r="52" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="B52" s="49"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="E53" s="16"/>
     </row>
-    <row r="54" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="E54" s="16"/>
     </row>
   </sheetData>
@@ -2135,7 +2135,7 @@
       <formula>$C11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C37 F5:F37">
+  <conditionalFormatting sqref="F5:F37 C5:C37">
     <cfRule type="expression" dxfId="10" priority="54">
       <formula>$C5="Dropped"</formula>
     </cfRule>
@@ -2221,7 +2221,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
@@ -2230,65 +2230,65 @@
     <col min="6" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="18">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="18">
         <v>0.5</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="18">
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -2297,74 +2297,74 @@
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="18">
         <f>A5+A4</f>
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="18">
         <f t="shared" ref="A7:A13" si="0">A6+A5</f>
         <v>5</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2372,7 +2372,7 @@
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2380,7 +2380,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -2388,107 +2388,107 @@
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="16" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="68.25" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25">
       <c r="A17" s="21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25">
       <c r="A18" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25">
       <c r="A19" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25">
       <c r="A20" s="21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25">
       <c r="A21" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="23.25">
       <c r="A22" s="21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="23.25">
       <c r="A23" s="21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="23.25">
       <c r="A24" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23.25">
       <c r="A25" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="23.25">
       <c r="A26" s="21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="23.25">
       <c r="A27" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2507,6 +2507,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B8B53775E6D35F4CA8E311D27EAAAE5D" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="b08ffb6f49a946e3a6201ebaf8d0c36b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f08d0dc2a2c440ea41234e3d9d6f8b8" ns2:_="">
     <xsd:import namespace="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f"/>
@@ -2644,52 +2659,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3EC7F-0965-4EA9-A9B3-3ADE292508A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c65e352-0f63-4b45-b4ce-a117a7bc5f8f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCF2672-EA77-4AF1-BE56-97AA2FBEFF47}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EF175B-F78D-4CB0-A5EB-3F12E9CE216A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92EF175B-F78D-4CB0-A5EB-3F12E9CE216A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FCF2672-EA77-4AF1-BE56-97AA2FBEFF47}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCD3EC7F-0965-4EA9-A9B3-3ADE292508A4}"/>
 </file>